--- a/biology/Médecine/Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis/Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis.xlsx
+++ b/biology/Médecine/Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis/Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9,_de_l%27%C3%89ducation_et_des_Services_sociaux_des_%C3%89tats-Unis</t>
+          <t>Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le département de la Santé, de l'Éducation et des Services sociaux des États-Unis (en anglais : United States Department of Health, Education, and Welfare ou HEW) est un ancien département de la branche exécutive du gouvernement fédéral des États-Unis de 1953 à 1979. Il est dirigé par le secrétaire à la Santé, l'Éducation et aux Services sociaux qui siégeait au cabinet présidentiel. En 1979, sous la présidence de Jimmy Carter, un département de l'Éducation séparé est créé et le HEW est renommé département de la Santé et des Services sociaux (Department of Health and Human Services ou HHS).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9partement_de_la_Sant%C3%A9,_de_l%27%C3%89ducation_et_des_Services_sociaux_des_%C3%89tats-Unis</t>
+          <t>Département_de_la_Santé,_de_l'Éducation_et_des_Services_sociaux_des_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
